--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
+++ b/Logging_OREBRO_LAN/Logging_NORA/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45138</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
